--- a/Linkedin/junim/dados_vagas.xlsx
+++ b/Linkedin/junim/dados_vagas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Título</t>
   </si>
@@ -22,194 +22,112 @@
     <t>Link</t>
   </si>
   <si>
-    <t xml:space="preserve">
-        Desenvolvedor (a) Júnior - Brasil
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-a-j%C3%BAnior-brasil-at-deloitte-3837864590?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=960ROvaeo%2B%2FrPks14GTiAw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Front-end Junior
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-junior-at-nomus-3868563642?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=Xi6lggmy4ERG0lkUKo2Tpg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-junior-at-ouribank-3875790395?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=c7jQktH15Yb%2BzKYDaw1JSA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor de Software Júnior (Vaga Híbrida)
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-de-software-j%C3%BAnior-vaga-h%C3%ADbrida-at-dti-digital-3876922684?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=B%2BD%2BuNeQm8EuK256EfZZbg%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        DESENVOLVEDOR BACKEND JAVA JR
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-backend-java-jr-at-cielo-3856529790?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=AfYKI07Jkk9%2BcA2XXJo2eg%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Front-End JR
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-jr-at-wareline-3831897163?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=RzeFhH%2B%2FZYzhXScqIqgZBQ%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        DESENVOLVEDOR JUNIOR
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-junior-at-tbm-textil-bezerra-de-menezes-3806860450?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=LJ9hz45DsX3Jkg9CA60MNw%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        DESENVOLVEDOR FRONT END JR
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-jr-at-clickip-tecnologia-3828534452?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=2XtPNQnEOnesHLuCyTWPHA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor(a) Front-end Júnior
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-a-front-end-j%C3%BAnior-at-scipopulis-3846679915?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=go1Q2GsaHdQ92alB0hRffw%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-jr-at-stefanini-brasil-3880711499?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=t5Cws9V5kAx%2FZ1iiwlNsTA%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor(a) Front-End
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-a-front-end-at-brivia-the-creative-smartech-3798755517?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=wS8m37VR1huv%2FIJ5SzmsaA%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Full Stack Jr
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-full-stack-jr-at-droom-3870765286?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=9PAmITLBpqBswikqoQVimQ%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Front End - Time Gestão e Moda
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-time-gest%C3%A3o-e-moda-at-alterdata-software-3779997835?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=gMeRjc2%2FyPjTljR0E7f78A%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        DESENVOLVEDOR(A) FULLSTACK JR
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-a-fullstack-jr-at-itriad-pesquisa-e-desenvolvimento-3857234701?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=ebbcOtptmUxQavwIQgPK5w%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Júnior - Front End
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-j%C3%BAnior-front-end-at-contato-seguro-canal-de-den%C3%BAncias-3841999936?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=CMq%2BQ8uvB1xmliMWTHBRMw%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Estágio em Desenvolvimento de Software
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-em-desenvolvimento-de-software-at-nomus-3824128427?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=suH7vU4g2wjaR36CDd126A%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Estágio de Desenvolvedor (a) de Software
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-de-desenvolvedor-a-de-software-at-skeps-3859975445?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=FDYPK4VPT6l64O5L8wtSnA%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Front End
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-at-instant-solutions-cortex-ia-pabx-e-contact-center-em-nuvem-whatsapp-kwik-3880500035?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=2cs%2F%2BShENjWYoerpgZfSUA%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Full Stack Júnior
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-full-stack-j%C3%BAnior-at-instituto-de-gest%C3%A3o-e-tecnologia-da-informa%C3%A7%C3%A3o-3861969125?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=P%2FXT%2Bovs5Q6iC6mYHfDDIg%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        DESENVOLVEDOR BACK END JUNIOR - BARRA DA TIJUCA
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-back-end-junior-barra-da-tijuca-at-equipe-certa-3850236526?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=HLS5kx6tr6RnXS3MaVJtGA%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor de front-end
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-de-front-end-at-verx-tecnologia-e-inova%C3%A7%C3%A3o-3849809638?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=rgtTHQAy28ZaUMKqkN%2FY3A%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        DESENVOLVEDOR FRONT END
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-at-gestran-software-de-transportes-3843309443?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=bfz23KDGPZQBtLyVN84JHg%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Frontend
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-frontend-at-get-italent-3846490347?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=UxxF6pUGlbwZGvSEWph1Xg%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Front-end Júnior
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-j%C3%BAnior-at-pimenta-de-%C3%A1vila-consultoria-3862134129?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=KhsR%2Fd2AvFUOxDNZZaqnBA%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Desenvolvedor Front-end
-          </t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-at-amhp-associa%C3%A7%C3%A3o-dos-m%C3%A9dicos-de-hospitais-privados-3846448755?refId=qR003S%2FRmrYPkPjNc4hsLg%3D%3D&amp;trackingId=kLAnmFXxPP5oPej9pynBaQ%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+    <t>Desenvolvedor Front End</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-at-instant-solutions-cortex-ia-pabx-e-contact-center-em-nuvem-whatsapp-kwik-3924831106?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=hSBpG9mjQpZkcRtZ7ge7Ag%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor  FullStack (Node e React)</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-fullstack-node-e-react-at-tegra-3924738190?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=kvuIm4NPKzUTEM3ApDtCOg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor(a) Backend Junior (Remoto)</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-a-backend-junior-remoto-at-zenvia-3924234306?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=yvBA0NMLWXbLtxB58vboHw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Junior - Regional Minas</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-java-junior-regional-minas-at-montreal-oficial-3924823743?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=UiDKdn5hIGvI5TcQ%2FU0Ouw%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-java-junior-regional-minas-at-montreal-oficial-3924828353?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=9PTtkzKz40zNFDFYY%2F7L0A%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java - junior</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-java-junior-at-ewave-do-brasil-3924829599?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=yI0cv0ZK2kUQ4KWm8lgvDQ%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Front-End</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-at-tecmaster-3924869805?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=uSgJpHIXX09fmC0wDYv4nA%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Frontend</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-frontend-at-seedts-3924824710?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=BwEque7PBh7JO4Ic55419Q%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>DESENVOLVEDOR FULLSTACK JR</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-fullstack-jr-at-talents-consultoria-rh-3924827007?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=DY5q0Y16NE00gpA15Dw1tg%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-front-end-at-tollit-3925135284?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=w%2FO3T32A%2F86m6P4jsCd56Q%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>DESENVOLVEDOR JUNIOR</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-junior-at-job-terceiriza%C3%A7%C3%A3o-outsourcing-3924822725?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=upuDGpS7nB4XmvtOcsBhlQ%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-grupo-selecionar-3920668504?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=sNUzVwhwI0fTP5i8vCmfmg%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-wayon-it-solutions-3920671857?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=DJHcBFiNNW4CoE05OsKVZA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-impulso-3920670399?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=uqChSjSPPEfCZ3vFLagnIQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-louren%C3%A7o-transporte-e-log%C3%ADstica-3920680465?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=OBtHz7NbKVQIUFuVSTHH0A%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-louren%C3%A7o-transporte-e-log%C3%ADstica-3920677636?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=PV8Din49db2jif3Qw42aHA%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-impulso-3920669418?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=UxCGwP9aAUO03cEoHuwUzQ%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java - Backend</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-java-backend-at-softtek-3921149085?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=UVVS1nlIiCq4vObLMihB7w%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-camim-coach-e-consultoria-3924823636?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=yVwV34LrRG8CDdV7ECE7JA%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-koud-3923840287?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=FjWwFII3OV1LcNYhvpVGDA%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor de back end</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-de-back-end-at-eulabs-3908657335?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=Yto3l%2Ff9%2FF7NIfDhynqCmA%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Javascript</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-javascript-at-nexance-tecnologia-3925113344?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=9FiPihFSOaSUKv5t0RI6yw%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://br.linkedin.com/jobs/view/desenvolvedor-at-koud-3923837672?refId=wdyRhpA934EOLSn2ylTA3w%3D%3D&amp;trackingId=0n6spPC6jXJG3KJB6rSAtg%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
   </si>
 </sst>
 </file>
@@ -580,14 +498,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="49.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="83.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="58.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -598,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -606,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -614,31 +532,31 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="69.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="69.75">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -646,7 +564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -654,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -662,7 +580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -670,15 +588,15 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -686,7 +604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -694,108 +612,92 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="69.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="69.75">
-      <c r="A15" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="69.75">
-      <c r="A16" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="69.75">
-      <c r="A17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="69.75">
-      <c r="A18" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="69.75">
-      <c r="A19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
